--- a/medicine/Enfance/Jean-Paul_Demure/Jean-Paul_Demure.xlsx
+++ b/medicine/Enfance/Jean-Paul_Demure/Jean-Paul_Demure.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean-Paul Demure, né le 23 octobre 1941 à Clermont-Ferrand, est un écrivain et scénariste français, spécialisé dans le roman policier. Ses polars sont pour partie le reflet de sa vie professionnelle tumultueuse (VRP, œocuméniste d'un nouveau genre, jardinier, crépier, facteur) et de l'observation noire d'un monde dominé par les règles immuables du pouvoir et du profit. Les êtres fragiles, ainsi que leur courage, sont les véritables héros de ses récits.
 </t>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il exerce divers petits emplois, dont magasinier, chauffeur, livreur, barman, facteur, vendeur de bibles et jardinier, avant de se lancer dans l'écriture de fiction moderne.
 Il publie son premier texte, L'Éternité, en 1966, puis une nouvelle, Aller simple, dans la revue Les Temps modernes en 1971.
 Son premier roman, Le Manuel (1977), est très influencé par le Nouveau roman. Toutefois, après la publication de la nouvelle Traces dans la revue Milieux, il se tourne vers le roman policier et entre dans la collection Série noire avec Le Fils du vent (1984), où apparaît l'inspecteur Puymichel qui revient dans La Belle Dame dans un violon (1986). C'est toutefois avec des romans noirs, parfois dotés d'un humour grinçant, où s'entrecroisent de nombreux personnages désœuvrés ou naïfs, qu'il fait sa marque. 
-Selon Claude Mesplède, une de ses grandes réussites demeure Aix abrupto (1987), qui reçoit le Grand prix de littérature policière 1988 : « sur fond de préparation d'élections municipales et de quelques magouilles locales, le récit met en scène une foule de personnages qui se croisent et s'entrecroisent pendant le festival de musique d'Aix-en-Provence [...] dans des péripéties d'une éblouissante drôlerie »[1]. Après deux titres plus tragiques, Découpe sombre (1988) et Milac (1996), il donne Fin de chasse (1998), un roman policier se déroulant dans l'Ardèche, prétexte à une dénonciation du « climat étouffant d'une communauté campagnarde repliée sur elle-même »[1]. 
+Selon Claude Mesplède, une de ses grandes réussites demeure Aix abrupto (1987), qui reçoit le Grand prix de littérature policière 1988 : « sur fond de préparation d'élections municipales et de quelques magouilles locales, le récit met en scène une foule de personnages qui se croisent et s'entrecroisent pendant le festival de musique d'Aix-en-Provence [...] dans des péripéties d'une éblouissante drôlerie ». Après deux titres plus tragiques, Découpe sombre (1988) et Milac (1996), il donne Fin de chasse (1998), un roman policier se déroulant dans l'Ardèche, prétexte à une dénonciation du « climat étouffant d'une communauté campagnarde repliée sur elle-même ». 
 Jean-Paul Demure a également publié La Concernade, un roman historique sur les travailleurs, piémontais pour la plupart, qui s'épuisèrent à creuser le canal de la Durance pour amener l'eau à Marseille pendant la première moitié du XIXe siècle, et la série pour la jeunesse ayant pour héroïne Mémé Papouche.
 Scénariste pour la télévision, il a notamment écrit six épisodes de la série télévisée française Puissance 4, deux pour la série Joséphine, ange gardien, et deux autres pour la série Louis la Brocante.
 </t>
@@ -549,16 +563,130 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Roman
-Le Manuel, P.J. Oswald, 1977
-Roman historique
-La Concernade, éditions Denoël, 1991
-Romans policiers
-Série Inspecteur Puymichel
-Le Fils du vent, Gallimard, coll. « Série noire » no 1926, 1984 - adapté pour la série Navarro, sur TF1
-La Belle Dame dans un violon, Gallimard, coll. « Série noire » no 2034, 1986
-Autres romans policiers
-Razzia sur la paroisse, Fleuve noir, coll. « Engrenage » no 56 Fleuve noir ; réédition, Payot et Rivages, coll. « Rivages/Noir » no 568, 2005
+          <t>Roman</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le Manuel, P.J. Oswald, 1977</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Jean-Paul_Demure</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Paul_Demure</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Roman historique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>La Concernade, éditions Denoël, 1991</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Jean-Paul_Demure</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Paul_Demure</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans policiers</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Série Inspecteur Puymichel</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Le Fils du vent, Gallimard, coll. « Série noire » no 1926, 1984 - adapté pour la série Navarro, sur TF1
+La Belle Dame dans un violon, Gallimard, coll. « Série noire » no 2034, 1986</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Jean-Paul_Demure</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Paul_Demure</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Romans policiers</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Autres romans policiers</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Razzia sur la paroisse, Fleuve noir, coll. « Engrenage » no 56 Fleuve noir ; réédition, Payot et Rivages, coll. « Rivages/Noir » no 568, 2005
 L'Embrouille, Fleuve Noir, coll. « Engrenage » no 70, 1983
 L'Amour en miettes, Gallimard, coll. « Série noire » no 1974, 1984 - adaptation radio par France Culture
 Aix-abrupto, Gallimard, coll. « Série noire » no 2082, 1987 ; réédition, Gallimard, coll. « Folio » no 2717, 1995 - Grand prix de littérature policière
@@ -570,12 +698,80 @@
 Les Rosiers de la rue Vermenouze, éditions De Borée, 2005
 Le linceul n'est pas qu'aux moches, éditions de La Branche, coll. « Suite noire » no 4, 2006
 Cher Payé, Payot et Rivages, coll. « Rivages/Noir » no 799, 2010
-Le Chant des morts coll. « Rivages/Noir » no 958, 2014
-Recueils de nouvelles
-Petites chroniques de nuit, éditions de l'Aube, coll. « Nouvelles de l'Aube », 1989
-La Culotte de la mort, coll. « Rivages/Noir » no 682, 2008
-Nouvelles
-L'Éternité, 1966
+Le Chant des morts coll. « Rivages/Noir » no 958, 2014</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Jean-Paul_Demure</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Paul_Demure</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Recueils de nouvelles</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Petites chroniques de nuit, éditions de l'Aube, coll. « Nouvelles de l'Aube », 1989
+La Culotte de la mort, coll. « Rivages/Noir » no 682, 2008</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Jean-Paul_Demure</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Paul_Demure</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>L'Éternité, 1966
 Aller simple, Les Temps Modernes, 1971
 Tandis que les chevaux, revue Minuit, 1975
 Traces, revue Milieux, 1980
@@ -584,43 +780,82 @@
 Le Lendemain, dans Nouvelles Nuits no 3, 1990
 Une seule Maisie, dans les Cahiers de Schibboleth no 12, 1990 ; réédition, L'Atalante, recueil collectif La Crème du crime no 2, 1995
 Vivre sa vie, dans Nouvelles nouvelles no 22 - spécial polar, mars 1991
-Dialogue, revue Brèves no 67 bis, 1993
-Ouvrages pour la jeunesse
-Série Mémé Papouche
-Aux éditions Syros - Souris noire :
+Dialogue, revue Brèves no 67 bis, 1993</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Jean-Paul_Demure</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Paul_Demure</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Ouvrages pour la jeunesse</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Série Mémé Papouche</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Aux éditions Syros - Souris noire :
 Mémé Papouche, no 37, 1989
 Mémé Papouche piège le diable, no 60, 1992
 Mémé Papouche roule au super, no 67, 1993</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Jean-Paul_Demure</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Jean-Paul_Demure</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Jean-Paul_Demure</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Paul_Demure</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Prix et distinctions notables</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Grand prix de littérature policière 1988 pour Aix abrupto[2]
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Grand prix de littérature policière 1988 pour Aix abrupto
 Grand Prix du Roman Noir, Festival de Cognac, 1999, pour Fin de chasse</t>
         </is>
       </c>
